--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_16-24.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_16-24.xlsx
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>ZETAKARDOVAL 10/160MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -1454,13 +1457,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>-25</v>
+        <v>-96</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1472,7 +1475,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1480,13 +1483,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1498,7 +1501,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1506,13 +1509,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1532,17 +1535,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1550,7 +1553,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1558,17 +1561,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1584,13 +1587,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1610,51 +1613,77 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="37" ht="26.25" customHeight="1">
-      <c r="K37" s="10">
-        <v>2149.6399999999999</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="11">
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c t="s" r="B37" s="7">
         <v>59</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c t="s" r="F38" s="12">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c t="s" r="H37" s="8">
+        <v>16</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9">
+        <v>30</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c t="s" r="N37" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="K38" s="10">
+        <v>2053.6399999999999</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
+      <c t="s" r="A39" s="11">
         <v>60</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c t="s" r="I38" s="14">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c t="s" r="F39" s="12">
         <v>61</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+      <c t="s" r="I39" s="14">
+        <v>62</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="113">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1761,10 +1790,13 @@
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:N39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
